--- a/biology/Botanique/Oryxis_monticola/Oryxis_monticola.xlsx
+++ b/biology/Botanique/Oryxis_monticola/Oryxis_monticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oryxis monticola est une espèce de plantes à fleurs dicotylédones de la famille des Fabaceae et de la sous-famille des Faboideae, originaire du Brésil. C'est l'unique espèce du genre Oryxis (genre monotypique).
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est connue que dans l'État brésilien du Minas Gerais (espèce endémique).
-La plante croît dans les champs rupestres et le cerrado, généralement parmi les rochers, à des altitudes de 700 à 1500 mètres environ[3].
+La plante croît dans les champs rupestres et le cerrado, généralement parmi les rochers, à des altitudes de 700 à 1500 mètres environ.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Oryxis, est un terme grec (ὄρυξις, oryxis, excavation ou creusement) en référence à l'État brésilien de Minas Gerais connu ses exploitations minières[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Oryxis, est un terme grec (ὄρυξις, oryxis, excavation ou creusement) en référence à l'État brésilien de Minas Gerais connu ses exploitations minières.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Oryxis monticola a été décrite par (George Bentham) A.Delgado &amp; G.P.Lewis et publiée dans Kew Bulletin 52(1): 221 en 1997[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Oryxis monticola a été décrite par (George Bentham) A.Delgado &amp; G.P.Lewis et publiée dans Kew Bulletin 52(1): 221 en 1997.
 </t>
         </is>
       </c>
